--- a/Invoice_Information.xlsx
+++ b/Invoice_Information.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,34 +450,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>your@email.com</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>03/19/2021</t>
+          <t>08/25/2022</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$3,166.25</t>
+          <t>$2,000</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>email</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -487,125 +487,125 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>your@email.com</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>08/25/2022</t>
+          <t>July 8, 2011</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$2,000</t>
+          <t>567.50$</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>slicedinvoices</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>INV-3337</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>admin@slicedinvoices.com</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>July 8, 2011</t>
+          <t>January 31, 2016</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>567.50$</t>
+          <t>$93.50</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>slicedinvoices</t>
+          <t>tripadvisor</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>INV-3337</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>admin@slicedinvoices.com</t>
+          <t>swhyffen1@tripadvisor.com</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>January 31, 2016</t>
+          <t>August 26,  2022</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$93.50</t>
+          <t>$187.00</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>surveymonkey</t>
+          <t>wikia</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>V-PR352248</t>
+          <t>V-RK356748</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>etethcote1@surveymonkey.com</t>
+          <t>qjeayes2@wikia.com</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12/06/1984</t>
+          <t>13/10/1976</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>$182.00</t>
+          <t>$63.00</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>surveymonkey</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-OV356648</t>
+          <t>V-PR352248</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>etethcote1@surveymonkey.com</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>November 18,  2018</t>
+          <t>12/06/1984</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$86.00</t>
+          <t>$182.00</t>
         </is>
       </c>
     </row>
@@ -627,12 +627,66 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>November 18,  2018</t>
+          <t>12/06/1984</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>$85.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>newyorker</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>fde2@newyorker.com</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11/15/2016</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>$104.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>reuters</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>V-LT356648</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>rauthers2@reuters.com</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>December 24, 1980</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>$86.00</t>
         </is>
       </c>
     </row>

--- a/Invoice_Information.xlsx
+++ b/Invoice_Information.xlsx
@@ -477,81 +477,81 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>slicedinvoices</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>INV-3337</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>admin@slicedinvoices.com</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>July 8, 2011</t>
+          <t>January 31, 2016</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>567.50$</t>
+          <t>$93.50</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>slicedinvoices</t>
+          <t>mapquest</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>INV-3337</t>
+          <t>V-PR352248</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>admin@slicedinvoices.com</t>
+          <t>cerasmus0@mapquest.com</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>January 31, 2016</t>
+          <t>02/26/1982</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$93.50</t>
+          <t>$75.00</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>tripadvisor</t>
+          <t>example</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>V-RK356748</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>swhyffen1@tripadvisor.com</t>
+          <t>Jane@example.comEmail</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>August 26,  2022</t>
+          <t>02/26/1982</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$187.00</t>
+          <t>$116.00</t>
         </is>
       </c>
     </row>

--- a/Invoice_Information.xlsx
+++ b/Invoice_Information.xlsx
@@ -453,11 +453,7 @@
           <t>email</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>your@email.com</t>
@@ -642,11 +638,7 @@
           <t>newyorker</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>fde2@newyorker.com</t>

--- a/Invoice_Information.xlsx
+++ b/Invoice_Information.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,96 +448,84 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>your@email.com</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>08/25/2022</t>
+          <t>03/19/2021</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$2,000</t>
+          <t>$3,166.25</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>slicedinvoices</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>INV-3337</t>
-        </is>
-      </c>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>admin@slicedinvoices.com</t>
+          <t>your@email.com</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>January 31, 2016</t>
+          <t>08/25/2022</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$93.50</t>
+          <t>$2,000</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>mapquest</t>
+          <t>slicedinvoices</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>V-PR352248</t>
+          <t>INV-3337</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>cerasmus0@mapquest.com</t>
+          <t>admin@slicedinvoices.com</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>02/26/1982</t>
+          <t>January 31, 2016</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$75.00</t>
+          <t>$93.50</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>example</t>
+          <t>mapquest</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>V-RK356748</t>
+          <t>V-PR352248</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jane@example.comEmail</t>
+          <t>cerasmus0@mapquest.com</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -547,136 +535,186 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$116.00</t>
+          <t>$75.00</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>wikia</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>V-RK356748</t>
-        </is>
-      </c>
+          <t>nydailynews</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>qjeayes2@wikia.com</t>
+          <t>csutton2@nydailynews.c</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>13/10/1976</t>
+          <t>02/26/1982</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>$63.00</t>
+          <t>$119.0088035</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>surveymonkey</t>
+          <t>example</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>V-PR352248</t>
+          <t>V-RK356748</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>etethcote1@surveymonkey.com</t>
+          <t>Jane@example.comEmail</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12/06/1984</t>
+          <t>02/26/1982</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$182.00</t>
+          <t>$116.00</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>barnesandnoble</t>
+          <t>wikia</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>V-UB359948</t>
+          <t>V-RK356748</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>kmatushenko1@barnesandnoble.com</t>
+          <t>qjeayes2@wikia.com</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12/06/1984</t>
+          <t>13/10/1976</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>$85.00</t>
+          <t>$63.00</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>newyorker</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
+          <t>surveymonkey</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>V-PR352248</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>fde2@newyorker.com</t>
+          <t>etethcote1@surveymonkey.com</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>11/15/2016</t>
+          <t>12/06/1984</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>$104.00</t>
+          <t>$182.00</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>barnesandnoble</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>V-UB359948</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>kmatushenko1@barnesandnoble.com</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12/06/1984</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>$85.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>newyorker</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>fde2@newyorker.com</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11/15/2016</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>$104.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>reuters</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>V-LT356648</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>rauthers2@reuters.com</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>December 24, 1980</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>$86.00</t>
         </is>

--- a/Invoice_Information.xlsx
+++ b/Invoice_Information.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,36 +563,24 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>example</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>V-RK356748</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Jane@example.comEmail</t>
-        </is>
-      </c>
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>02/26/1982</t>
+          <t>Aug 26,  2022</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$116.00</t>
+          <t>$61.00</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>wikia</t>
+          <t>example</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -602,61 +590,61 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>qjeayes2@wikia.com</t>
+          <t>Jane@example.comEmail</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>13/10/1976</t>
+          <t>Aug 26,  2022</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>$63.00</t>
+          <t>$116.00</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>surveymonkey</t>
+          <t>wikia</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>V-PR352248</t>
+          <t>V-RK356748</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>etethcote1@surveymonkey.com</t>
+          <t>qjeayes2@wikia.com</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>12/06/1984</t>
+          <t>13/10/1976</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>$182.00</t>
+          <t>$63.00</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>barnesandnoble</t>
+          <t>surveymonkey</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>V-UB359948</t>
+          <t>V-PR352248</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>kmatushenko1@barnesandnoble.com</t>
+          <t>etethcote1@surveymonkey.com</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -666,55 +654,82 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>$85.00</t>
+          <t>$182.00</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>newyorker</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
+          <t>barnesandnoble</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>V-UB359948</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>fde2@newyorker.com</t>
+          <t>kmatushenko1@barnesandnoble.com</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>11/15/2016</t>
+          <t>12/06/1984</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>$104.00</t>
+          <t>$85.00</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>newyorker</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>fde2@newyorker.com</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11/15/2016</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>$104.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>reuters</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>V-LT356648</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>rauthers2@reuters.com</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>December 24, 1980</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>$86.00</t>
         </is>

--- a/Invoice_Information.xlsx
+++ b/Invoice_Information.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,86 +446,114 @@
           <t>Total</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Processed Date</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>your@email.com</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>03/19/2021</t>
+          <t>08/25/2022</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$3,166.25</t>
+          <t>$2,000</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>slicedinvoices</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>INV-3337</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>your@email.com</t>
+          <t>admin@slicedinvoices.com</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>08/25/2022</t>
+          <t>January 31, 2016</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$2,000</t>
+          <t>$93.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>slicedinvoices</t>
+          <t>mapquest</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>INV-3337</t>
+          <t>V-PR352248</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>admin@slicedinvoices.com</t>
+          <t>cerasmus0@mapquest.com</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>January 31, 2016</t>
+          <t>02/26/1982</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$93.50</t>
+          <t>$75.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>mapquest</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>V-PR352248</t>
-        </is>
-      </c>
+          <t>nydailynews</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>cerasmus0@mapquest.com</t>
+          <t>csutton2@nydailynews.c</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -535,30 +563,32 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$75.00</t>
+          <t>$119.0088035</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>nydailynews</t>
-        </is>
-      </c>
+      <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>csutton2@nydailynews.c</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>02/26/1982</t>
+          <t>Aug 26,  2022</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>$119.0088035</t>
+          <t>$61.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
         </is>
       </c>
     </row>
@@ -576,6 +606,11 @@
           <t>$61.00</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -603,11 +638,16 @@
           <t>$116.00</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>wikia</t>
+          <t>example</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -617,61 +657,71 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>qjeayes2@wikia.com</t>
+          <t>Jane@example.comEmail</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13/10/1976</t>
+          <t>Aug 26,  2022</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>$63.00</t>
+          <t>$116.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>surveymonkey</t>
+          <t>wikia</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>V-PR352248</t>
+          <t>V-RK356748</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>etethcote1@surveymonkey.com</t>
+          <t>qjeayes2@wikia.com</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12/06/1984</t>
+          <t>13/10/1976</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>$182.00</t>
+          <t>$63.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>barnesandnoble</t>
+          <t>surveymonkey</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>V-UB359948</t>
+          <t>V-PR352248</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>kmatushenko1@barnesandnoble.com</t>
+          <t>etethcote1@surveymonkey.com</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -681,57 +731,832 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>$85.00</t>
+          <t>$182.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>newyorker</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>fde2@newyorker.com</t>
-        </is>
-      </c>
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>-OV356648</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>11/15/2016</t>
+          <t>November 18,  2018</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>$104.00</t>
+          <t>$86.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>barnesandnoble</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>V-UB359948</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>kmatushenko1@barnesandnoble.com</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>November 18,  2018</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>$85.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>newyorker</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>fde2@newyorker.com</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11/15/2016</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>$104.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>reuters</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>V-LT356648</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>rauthers2@reuters.com</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>December 24, 1980</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>$86.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>myexample</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>INV-0013</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>example@myexample.com</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>09/13/2022</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>$55.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>myexample</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>INV-0013</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>example@myexample.com</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>09/13/2022</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>$55.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>myexample</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>INV-0013</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>example@myexample.com</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>09/13/2022</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>$55.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>myexample</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>INV-0013</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>example@myexample.com</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>09/13/2022</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>$55.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>myexample</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>INV-0013</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>example@myexample.com</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>09/13/2022</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>$55.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>myexample</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>INV-0013</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>example@myexample.com</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>09/13/2022</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>$55.00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>myexample</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>INV-0013</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>example@myexample.com</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>09/13/2022</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>$55.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>myexample</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>INV-0013</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>example@myexample.com</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>09/13/2022</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>$55.00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>myexample</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>INV-0013</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>example@myexample.com</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>09/13/2022</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>$55.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>myexample</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>INV-0013</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>example@myexample.com</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>09/13/2022</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>$55.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>myexample</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>INV-0013</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>example@myexample.com</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>09/13/2022</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>$55.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>myexample</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>INV-0013</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>example@myexample.com</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>09/13/2022</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>$55.00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>myexample</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>INV-0013</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>example@myexample.com</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>09/13/2022</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>$55.00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>myexample</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>INV-0013</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>example@myexample.com</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>09/13/2022</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>$55.00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>myexample</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>INV-0013</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>example@myexample.com</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>09/13/2022</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>$55.00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>myexample</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>INV-0013</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>example@myexample.com</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>09/13/2022</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>$55.00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>myexample</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>INV-0013</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>example@myexample.com</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>09/13/2022</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>$55.00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>myexample</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>INV-0013</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>example@myexample.com</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>09/13/2022</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>$55.00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>myexample</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>INV-0013</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>example@myexample.com</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>09/13/2022</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>$55.00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>myexample</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>INV-0013</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>example@myexample.com</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>09/13/2022</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>$55.00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>myexample</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>INV-0013</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>example@myexample.com</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>09/13/2022</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>$55.00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>myexample</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>INV-0013</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>example@myexample.com</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>09/13/2022</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>$55.00</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
         </is>
       </c>
     </row>
